--- a/resources/LoveTrack.xlsx
+++ b/resources/LoveTrack.xlsx
@@ -1880,7 +1880,18 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26.08.2021</t>
+        </is>
+      </c>
+      <c r="GG3" t="inlineStr">
+        <is>
+          <t>1 - 4 ; 0 - 7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
